--- a/output/below_50/tRNA-iMet-CAT-1-4.xlsx
+++ b/output/below_50/tRNA-iMet-CAT-1-4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
   <si>
     <t>chr6</t>
   </si>
@@ -219,162 +219,6 @@
   </si>
   <si>
     <t>54</t>
-  </si>
-  <si>
-    <t>26330582</t>
-  </si>
-  <si>
-    <t>26330605</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>26330585</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>CGCGTAGCAGAGTGGCGCAG</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>89% (63)</t>
-  </si>
-  <si>
-    <t>83% (63)</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 46, Doench 2016: 89%, Moreno-Mateos: 83%</t>
-  </si>
-  <si>
-    <t>3.18617E+11</t>
-  </si>
-  <si>
-    <t>26330746</t>
-  </si>
-  <si>
-    <t>26330769</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>26330766</t>
-  </si>
-  <si>
-    <t>GAAAAGAGTTAATAAGAAAT</t>
-  </si>
-  <si>
-    <t>23% (32)</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 32, Doench 2016: 6%, Moreno-Mateos: 23%</t>
-  </si>
-  <si>
-    <t>2.57095E+11</t>
-  </si>
-  <si>
-    <t>26330753</t>
-  </si>
-  <si>
-    <t>26330776</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26330773</t>
-  </si>
-  <si>
-    <t>GTTAATAAGAAATAGGAAAA</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 25, Doench 2016: 6%, Moreno-Mateos: 20%</t>
-  </si>
-  <si>
-    <t>1.45942E+11</t>
-  </si>
-  <si>
-    <t>26330940</t>
-  </si>
-  <si>
-    <t>26330963</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>26330943</t>
-  </si>
-  <si>
-    <t>CAAATTACAACATGGAAAAA</t>
-  </si>
-  <si>
-    <t>9% (31)</t>
-  </si>
-  <si>
-    <t>17% (28)</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 29, Doench 2016: 9%, Moreno-Mateos: 17%</t>
-  </si>
-  <si>
-    <t>2.87626E+11</t>
-  </si>
-  <si>
-    <t>26330991</t>
-  </si>
-  <si>
-    <t>26331014</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>26331011</t>
-  </si>
-  <si>
-    <t>GCCACATGTGGGGAAAAAAA</t>
-  </si>
-  <si>
-    <t>63% (54)</t>
-  </si>
-  <si>
-    <t>76% (58)</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 39, Doench 2016: 63%, Moreno-Mateos: 76%</t>
-  </si>
-  <si>
-    <t>32962848937</t>
   </si>
 </sst>
 </file>
@@ -419,7 +263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -897,301 +741,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>79</v>
-      </c>
-      <c r="R9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" t="s">
-        <v>87</v>
-      </c>
-      <c r="P10" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" t="s">
-        <v>89</v>
-      </c>
-      <c r="S10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>97</v>
-      </c>
-      <c r="R11" t="s">
-        <v>98</v>
-      </c>
-      <c r="S11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" t="s">
-        <v>102</v>
-      </c>
-      <c r="N12" t="s">
-        <v>105</v>
-      </c>
-      <c r="O12" t="s">
-        <v>106</v>
-      </c>
-      <c r="P12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>107</v>
-      </c>
-      <c r="R12" t="s">
-        <v>108</v>
-      </c>
-      <c r="S12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" t="s">
-        <v>112</v>
-      </c>
-      <c r="N13" t="s">
-        <v>115</v>
-      </c>
-      <c r="O13" t="s">
-        <v>116</v>
-      </c>
-      <c r="P13" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>118</v>
-      </c>
-      <c r="R13" t="s">
-        <v>119</v>
-      </c>
-      <c r="S13" t="s">
-        <v>120</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
